--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>438716.6433826074</v>
+        <v>482578.1406548951</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484452</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7957615.801014495</v>
+        <v>7976555.196319879</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>246.3520454205101</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>81.60632397237796</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>32.43393787379242</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>271.8213199526548</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>173.3558943589991</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>303.7990201057557</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>117.0651615925912</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1066,7 +1066,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>184.0200891708366</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.51711948015611</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>199.4665337075504</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.40926378223357</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659445</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.67077719907009</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225714</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572537</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.4855017772227</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170566</v>
+        <v>24.3431845617047</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>147.3525275309908</v>
+        <v>364.8064609075518</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.77283765622126</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>165.7499153537915</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>129.3727203283465</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655116</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>108.3408915168847</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>193.8659438253731</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9742767430575</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>31.24391673888196</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>143.8427601615729</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513543</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3430,19 +3430,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>134.7806822622886</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.0567773522577</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>249.4112747763487</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888141</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>668.0368528135841</v>
+        <v>1263.208490437124</v>
       </c>
       <c r="C2" t="n">
-        <v>633.9347840374114</v>
+        <v>1229.106421660951</v>
       </c>
       <c r="D2" t="n">
-        <v>602.06540325226</v>
+        <v>1197.237040875799</v>
       </c>
       <c r="E2" t="n">
-        <v>572.3310624509593</v>
+        <v>1167.502700074499</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>739.6352704837066</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>338.2374391069705</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2372.93359723421</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2113.711294551226</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>2113.711294551226</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>1708.855839962259</v>
       </c>
       <c r="X2" t="n">
-        <v>694.5417389180304</v>
+        <v>1289.71337654157</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.2960192580879</v>
+        <v>1285.467656881627</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064437</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>637.5656745568458</v>
+        <v>958.4074414128054</v>
       </c>
       <c r="C4" t="n">
-        <v>637.5656745568458</v>
+        <v>785.8457298960303</v>
       </c>
       <c r="D4" t="n">
-        <v>637.5656745568458</v>
+        <v>619.967737097553</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018678</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>786.4454139746583</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1245.929281155571</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1688.188084313216</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.857333538997</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2274.705037512707</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>2028.825591091163</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>1475.825600493101</v>
       </c>
       <c r="W4" t="n">
-        <v>1110.377099909325</v>
+        <v>1203.799196079393</v>
       </c>
       <c r="X4" t="n">
-        <v>864.9853452427376</v>
+        <v>958.4074414128054</v>
       </c>
       <c r="Y4" t="n">
-        <v>637.5656745568458</v>
+        <v>958.4074414128054</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.6683834787607</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>516.086709216029</v>
+        <v>977.375145460345</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>541.4653606347895</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1390.315733003896</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1375.213673623611</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1370.967953963669</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>892.8097628705518</v>
+        <v>800.9901093678603</v>
       </c>
       <c r="C7" t="n">
-        <v>892.8097628705518</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1138.201517537139</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>892.8097628705518</v>
+        <v>1220.228398772739</v>
       </c>
       <c r="Y7" t="n">
-        <v>892.8097628705518</v>
+        <v>992.8087280868474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715258</v>
+        <v>1270.561784452093</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953531</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020172</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890096</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851275</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851275</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114306</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>472.0266229114306</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>472.0266229114306</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>472.0266229114306</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>473.4386690283519</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274472</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626542</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1475.979822859464</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1071.124368270497</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>651.9819048498078</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y8" t="n">
-        <v>243.6957811494613</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330011</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599548</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230028</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897034</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842778</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.77193545851275</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>36.77193545851275</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>36.77193545851275</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851275</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851275</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851275</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851275</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851275</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851275</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851275</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264738</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255691</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683214</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908995</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925637</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631009</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929006</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507461</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760567</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>846.669627630997</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>574.6432232172886</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>329.251468550701</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>101.8317978648093</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172017</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111516</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1356.079523257015</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>1356.079523257015</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892153</v>
+        <v>1356.079523257015</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E13" t="n">
         <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
@@ -5203,10 +5203,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,16 +5224,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
         <v>1611.862057829513</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5279,13 +5279,13 @@
         <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687546</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>1607.050630386892</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>1607.050630386892</v>
       </c>
       <c r="N14" t="n">
         <v>2312.656441940405</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987282</v>
+        <v>806.2298140987273</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819531</v>
+        <v>633.6681025819522</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834758</v>
+        <v>467.790109783475</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342131</v>
+        <v>298.0321060342122</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959693</v>
+        <v>121.3250519959684</v>
       </c>
       <c r="G16" t="n">
         <v>96.73597668111518</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881912</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713473</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583903</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170195</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503607</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177154</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K17" t="n">
-        <v>858.1874981268019</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L17" t="n">
-        <v>858.1874981268019</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M17" t="n">
-        <v>2015.235333337353</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
-        <v>3140.9663167738</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>4121.145983344106</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112633</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>921.2561952691946</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C19" t="n">
-        <v>748.6944837524195</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>748.6944837524195</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>578.9364800031568</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>402.229425964913</v>
+        <v>262.3272516552876</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6381509907407</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2669.180599052379</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2423.301152630834</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2144.868151883939</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1857.912643754369</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1585.886239340661</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1340.494484674073</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.074813988182</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526434</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>944.8298656847294</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>516.9624360939372</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397526</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111526</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>531.9906641340332</v>
       </c>
       <c r="K20" t="n">
         <v>1366.340956092211</v>
@@ -5759,43 +5759,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693466</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693466</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263773</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097169</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055763</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055763</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239598</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112637</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429654</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.24048036348</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353824</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="21">
@@ -5811,25 +5811,25 @@
         <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>401.3609716556036</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>307.2405569825573</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>223.8567185987189</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>138.4716288649028</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111526</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415729</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
         <v>1102.064021433509</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>1030.691439225644</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>858.1297277088689</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777443</v>
+        <v>748.6944837524197</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>578.9364800031569</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>402.2294259649132</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>236.6381509907408</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111526</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111526</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169406</v>
+        <v>458.0741164169407</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849019</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U22" t="n">
-        <v>2308.274771460367</v>
+        <v>2254.303395840388</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778171</v>
+        <v>1967.347887710818</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1695.32148329711</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1449.929728630523</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>1222.510057944631</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2594.704009018976</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2594.704009018976</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883923</v>
+        <v>811.754677688392</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>811.754677688392</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>645.8766848899147</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>476.1186811406519</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
+        <v>330.8229638057298</v>
+      </c>
+      <c r="H28" t="n">
+        <v>190.9207894961043</v>
+      </c>
+      <c r="I28" t="n">
         <v>102.2608402707796</v>
       </c>
-      <c r="H28" t="n">
-        <v>102.2608402707796</v>
-      </c>
-      <c r="I28" t="n">
-        <v>102.2608402707798</v>
-      </c>
       <c r="J28" t="n">
-        <v>188.8405254354697</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
         <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.57329640738</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6655,7 +6655,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
         <v>1617.386921419177</v>
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238766</v>
       </c>
       <c r="F34" t="n">
         <v>267.852115244952</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903955</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736204</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751431</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>632.5563420751431</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,7 +7181,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832885</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7415,43 +7415,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
         <v>2955.199618136697</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724682</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651785</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835209</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J44" t="n">
         <v>537.5155277236975</v>
@@ -7658,40 +7658,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423623</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993929</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827326</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.88794878592</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538977</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722814</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595852</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912869</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846695</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257729</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.48574183704</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136693</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620723</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
         <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
         <v>1107.588885023173</v>
@@ -7767,10 +7767,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626147</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418354</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.756877347711</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831959</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F46" t="n">
-        <v>267.8521152449521</v>
+        <v>267.8521152449518</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
         <v>463.598980006605</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854782</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>379.7979693824709</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,25 +8453,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.426309209011436</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314093</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662715</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314094</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428524</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>832.412989013113</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457082</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,7 +8927,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>712.7331429833466</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,25 +9161,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
-        <v>329.4917515078473</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807687</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807095</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11063,13 +11063,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635241</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>268.0111327346215</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.14457787893127</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>139.5921776627262</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.5985112554905</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307846902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>267.5985112554916</v>
+        <v>50.14457787893065</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>113.876117358762</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>268.0111327346194</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>55.8783213536078</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>90.2200092229007</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,10 +24412,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>34.67467827192579</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.5921776627254</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>31.09722333628848</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>40.15930123557277</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,16 +25834,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>34.67467827192511</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>688580.5896490641</v>
+        <v>694412.1487400765</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688580.5896490641</v>
+        <v>696063.4908836646</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>689668.2725181845</v>
+        <v>696063.4908836646</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670588.978523034</v>
+        <v>670588.9785230341</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670588.978523034</v>
+        <v>670588.9785230341</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670588.978523034</v>
+        <v>670588.9785230344</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698888.5997108204</v>
+        <v>698888.5997108205</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698888.5997108206</v>
+        <v>698888.5997108205</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26314,13 @@
         <v>268073.6599452042</v>
       </c>
       <c r="C2" t="n">
-        <v>268073.6599452041</v>
+        <v>268073.6599452042</v>
       </c>
       <c r="D2" t="n">
         <v>268073.6599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="F2" t="n">
         <v>252761.9489858382</v>
@@ -26329,7 +26329,7 @@
         <v>252761.9489858381</v>
       </c>
       <c r="H2" t="n">
-        <v>252761.9489858382</v>
+        <v>252761.9489858383</v>
       </c>
       <c r="I2" t="n">
         <v>263428.7920686761</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.256503903</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390653</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200268</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520273</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.06737319988315e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283922</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784505</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509899</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104676</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485737</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.177844937</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>39457.78817960743</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
         <v>39457.78817960744</v>
@@ -26433,7 +26433,7 @@
         <v>39457.78817960744</v>
       </c>
       <c r="H4" t="n">
-        <v>39457.78817960744</v>
+        <v>39457.78817960746</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
@@ -26454,10 +26454,10 @@
         <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991269</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26485,7 +26485,7 @@
         <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764759</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579245</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121106.9619075414</v>
+        <v>-158604.1156654145</v>
       </c>
       <c r="C6" t="n">
-        <v>21084.3387521685</v>
+        <v>37136.84377063542</v>
       </c>
       <c r="D6" t="n">
-        <v>14956.40447979489</v>
+        <v>54477.38814454195</v>
       </c>
       <c r="E6" t="n">
-        <v>-84014.47522344411</v>
+        <v>-22026.81523632796</v>
       </c>
       <c r="F6" t="n">
-        <v>139784.8185285832</v>
+        <v>139708.2599737864</v>
       </c>
       <c r="G6" t="n">
-        <v>139784.8185285832</v>
+        <v>139708.2599737863</v>
       </c>
       <c r="H6" t="n">
-        <v>139784.8185285832</v>
+        <v>139708.2599737861</v>
       </c>
       <c r="I6" t="n">
-        <v>126222.8859001313</v>
+        <v>126199.6615607491</v>
       </c>
       <c r="J6" t="n">
-        <v>33573.13618798072</v>
+        <v>-16043.45229202514</v>
       </c>
       <c r="K6" t="n">
-        <v>144587.6015329709</v>
+        <v>130750.3686257432</v>
       </c>
       <c r="L6" t="n">
-        <v>135639.990444461</v>
+        <v>144564.3771935882</v>
       </c>
       <c r="M6" t="n">
-        <v>-42203.38507749668</v>
+        <v>9574.432580584917</v>
       </c>
       <c r="N6" t="n">
-        <v>144587.6015329709</v>
+        <v>144564.3771935883</v>
       </c>
       <c r="O6" t="n">
-        <v>144587.6015329708</v>
+        <v>144564.3771935882</v>
       </c>
       <c r="P6" t="n">
-        <v>144587.6015329709</v>
+        <v>144564.3771935884</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314094</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.199708513941</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384744</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130502</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080456</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130502</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052223</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130502</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.55051528253</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
     </row>
   </sheetData>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>177.2367098743742</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>136.2602308833138</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,13 +27537,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>135.6264858379777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.26463309561905</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>256.0811030342887</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>97.00787993732132</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.15405127790133</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>58.91774794908508</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.5194552999026</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>215.484505078932</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125.4911687495637</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773347</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.47818213854782</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>379.7979693824709</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.426309209011436</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314094</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314093</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314093</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314093</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662715</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314094</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428524</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>832.412989013113</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>309.6062697457082</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>712.7331429833466</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
-        <v>329.4917515078473</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807687</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807095</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632083</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37783,13 +37783,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37953,7 +37953,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165075</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850282</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635241</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38093,10 +38093,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
